--- a/output/SAFRA_28289215000193.xlsx
+++ b/output/SAFRA_28289215000193.xlsx
@@ -702,10 +702,10 @@
         <v>44165</v>
       </c>
       <c r="B29">
-        <v>0.22720063</v>
+        <v>0.2247751599999999</v>
       </c>
       <c r="C29">
-        <v>0.01042649774285231</v>
+        <v>0.008429465556289317</v>
       </c>
     </row>
   </sheetData>

--- a/output/SAFRA_28289215000193.xlsx
+++ b/output/SAFRA_28289215000193.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SAFRA FERMAT FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,326 +383,242 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43343</v>
       </c>
       <c r="B2">
-        <v>-0.0119578199999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43373</v>
       </c>
       <c r="B3">
-        <v>0.006048689999999857</v>
-      </c>
-      <c r="C3">
         <v>0.0182244345074416</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43404</v>
       </c>
       <c r="B4">
-        <v>0.07170973000000003</v>
-      </c>
-      <c r="C4">
         <v>0.0652662645979889</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43434</v>
       </c>
       <c r="B5">
-        <v>0.08267307999999995</v>
-      </c>
-      <c r="C5">
         <v>0.010229775556857</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43465</v>
       </c>
       <c r="B6">
-        <v>0.07897354000000001</v>
-      </c>
-      <c r="C6">
         <v>-0.003417042566533524</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43496</v>
       </c>
       <c r="B7">
-        <v>0.1116830899999999</v>
-      </c>
-      <c r="C7">
         <v>0.03031543294379579</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43524</v>
       </c>
       <c r="B8">
-        <v>0.1063592800000002</v>
-      </c>
-      <c r="C8">
         <v>-0.004788963732460627</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43555</v>
       </c>
       <c r="B9">
-        <v>0.1057257599999999</v>
-      </c>
-      <c r="C9">
         <v>-0.000572616880838428</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43585</v>
       </c>
       <c r="B10">
-        <v>0.11251145</v>
-      </c>
-      <c r="C10">
         <v>0.006136865256716195</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43616</v>
       </c>
       <c r="B11">
-        <v>0.1267418899999999</v>
-      </c>
-      <c r="C11">
         <v>0.01279127509204514</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43646</v>
       </c>
       <c r="B12">
-        <v>0.1407491700000001</v>
-      </c>
-      <c r="C12">
         <v>0.01243166702535592</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43677</v>
       </c>
       <c r="B13">
-        <v>0.1496872199999999</v>
-      </c>
-      <c r="C13">
         <v>0.007835245674559399</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43708</v>
       </c>
       <c r="B14">
-        <v>0.1454944300000001</v>
-      </c>
-      <c r="C14">
         <v>-0.003646896240178998</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43738</v>
       </c>
       <c r="B15">
-        <v>0.1624125199999999</v>
-      </c>
-      <c r="C15">
         <v>0.01476924684828007</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43769</v>
       </c>
       <c r="B16">
-        <v>0.17488269</v>
-      </c>
-      <c r="C16">
         <v>0.01072783524389442</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43799</v>
       </c>
       <c r="B17">
-        <v>0.1759218599999999</v>
-      </c>
-      <c r="C17">
         <v>0.0008844883058067854</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43830</v>
       </c>
       <c r="B18">
-        <v>0.1959084</v>
-      </c>
-      <c r="C18">
         <v>0.01699648648422958</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43861</v>
       </c>
       <c r="B19">
-        <v>0.20342824</v>
-      </c>
-      <c r="C19">
         <v>0.00628797322604302</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43890</v>
       </c>
       <c r="B20">
-        <v>0.18707516</v>
-      </c>
-      <c r="C20">
         <v>-0.01358874543279787</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43921</v>
       </c>
       <c r="B21">
-        <v>0.1742839199999999</v>
-      </c>
-      <c r="C21">
         <v>-0.01077542554255795</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43951</v>
       </c>
       <c r="B22">
-        <v>0.1888042699999999</v>
-      </c>
-      <c r="C22">
         <v>0.01236528045108543</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43982</v>
       </c>
       <c r="B23">
-        <v>0.20667938</v>
-      </c>
-      <c r="C23">
         <v>0.01503620945103101</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>44012</v>
       </c>
       <c r="B24">
-        <v>0.21586862</v>
-      </c>
-      <c r="C24">
         <v>0.007615312030939014</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44043</v>
       </c>
       <c r="B25">
-        <v>0.23928529</v>
-      </c>
-      <c r="C25">
         <v>0.01925921075255643</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44074</v>
       </c>
       <c r="B26">
-        <v>0.23598403</v>
-      </c>
-      <c r="C26">
         <v>-0.002663841834191327</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44104</v>
       </c>
       <c r="B27">
-        <v>0.2221050599999999</v>
-      </c>
-      <c r="C27">
         <v>-0.01122908521722576</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44135</v>
       </c>
       <c r="B28">
-        <v>0.21453726</v>
-      </c>
-      <c r="C28">
         <v>-0.006192429969973157</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>44165</v>
       </c>
       <c r="B29">
-        <v>0.2247751599999999</v>
-      </c>
-      <c r="C29">
-        <v>0.008429465556289317</v>
+        <v>0.006136122987284942</v>
       </c>
     </row>
   </sheetData>
